--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H2">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I2">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J2">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.558130388920659</v>
+        <v>8.591717333333333</v>
       </c>
       <c r="N2">
-        <v>8.558130388920659</v>
+        <v>25.775152</v>
       </c>
       <c r="O2">
-        <v>0.08807126998940978</v>
+        <v>0.08461542565075156</v>
       </c>
       <c r="P2">
-        <v>0.08807126998940978</v>
+        <v>0.08461542565075157</v>
       </c>
       <c r="Q2">
-        <v>8.790972259138371</v>
+        <v>9.793753002476445</v>
       </c>
       <c r="R2">
-        <v>8.790972259138371</v>
+        <v>88.14377702228799</v>
       </c>
       <c r="S2">
-        <v>0.01884776812970218</v>
+        <v>0.01843379751641237</v>
       </c>
       <c r="T2">
-        <v>0.01884776812970218</v>
+        <v>0.01843379751641237</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H3">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I3">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J3">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.4790782736263</v>
+        <v>16.543524</v>
       </c>
       <c r="N3">
-        <v>16.4790782736263</v>
+        <v>49.630572</v>
       </c>
       <c r="O3">
-        <v>0.1695853283203131</v>
+        <v>0.1629286987355214</v>
       </c>
       <c r="P3">
-        <v>0.1695853283203131</v>
+        <v>0.1629286987355215</v>
       </c>
       <c r="Q3">
-        <v>16.92742612886143</v>
+        <v>18.858067783252</v>
       </c>
       <c r="R3">
-        <v>16.92742612886143</v>
+        <v>169.722610049268</v>
       </c>
       <c r="S3">
-        <v>0.03629225452028817</v>
+        <v>0.03549464673852264</v>
       </c>
       <c r="T3">
-        <v>0.03629225452028817</v>
+        <v>0.03549464673852264</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H4">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I4">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J4">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.2285953032043</v>
+        <v>35.53801933333333</v>
       </c>
       <c r="N4">
-        <v>35.2285953032043</v>
+        <v>106.614058</v>
       </c>
       <c r="O4">
-        <v>0.3625356225365314</v>
+        <v>0.3499957594051789</v>
       </c>
       <c r="P4">
-        <v>0.3625356225365314</v>
+        <v>0.3499957594051789</v>
       </c>
       <c r="Q4">
-        <v>36.18706305758207</v>
+        <v>40.5100133121891</v>
       </c>
       <c r="R4">
-        <v>36.18706305758207</v>
+        <v>364.5901198097019</v>
       </c>
       <c r="S4">
-        <v>0.077584748728472</v>
+        <v>0.07624792891910179</v>
       </c>
       <c r="T4">
-        <v>0.077584748728472</v>
+        <v>0.07624792891910179</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H5">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I5">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J5">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.8380806069547</v>
+        <v>25.92369633333334</v>
       </c>
       <c r="N5">
-        <v>23.8380806069547</v>
+        <v>77.771089</v>
       </c>
       <c r="O5">
-        <v>0.2453164345196663</v>
+        <v>0.2553092140468263</v>
       </c>
       <c r="P5">
-        <v>0.2453164345196663</v>
+        <v>0.2553092140468263</v>
       </c>
       <c r="Q5">
-        <v>24.4866455409629</v>
+        <v>29.55058563377678</v>
       </c>
       <c r="R5">
-        <v>24.4866455409629</v>
+        <v>265.955270703991</v>
       </c>
       <c r="S5">
-        <v>0.05249915524992331</v>
+        <v>0.05562009904953754</v>
       </c>
       <c r="T5">
-        <v>0.05249915524992331</v>
+        <v>0.05562009904953753</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.0272070954328</v>
+        <v>1.139906333333333</v>
       </c>
       <c r="H6">
-        <v>1.0272070954328</v>
+        <v>3.419719</v>
       </c>
       <c r="I6">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973528</v>
       </c>
       <c r="J6">
-        <v>0.2140058628877334</v>
+        <v>0.2178538649973527</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.0688982195683</v>
+        <v>14.94147133333333</v>
       </c>
       <c r="N6">
-        <v>13.0688982195683</v>
+        <v>44.824414</v>
       </c>
       <c r="O6">
-        <v>0.1344913446340794</v>
+        <v>0.1471509021617218</v>
       </c>
       <c r="P6">
-        <v>0.1344913446340794</v>
+        <v>0.1471509021617218</v>
       </c>
       <c r="Q6">
-        <v>13.42446498062965</v>
+        <v>17.03187780218511</v>
       </c>
       <c r="R6">
-        <v>13.42446498062965</v>
+        <v>153.286900219666</v>
       </c>
       <c r="S6">
-        <v>0.02878193625934769</v>
+        <v>0.0320573927737784</v>
       </c>
       <c r="T6">
-        <v>0.02878193625934769</v>
+        <v>0.03205739277377841</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H7">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I7">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J7">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.558130388920659</v>
+        <v>8.591717333333333</v>
       </c>
       <c r="N7">
-        <v>8.558130388920659</v>
+        <v>25.775152</v>
       </c>
       <c r="O7">
-        <v>0.08807126998940978</v>
+        <v>0.08461542565075156</v>
       </c>
       <c r="P7">
-        <v>0.08807126998940978</v>
+        <v>0.08461542565075157</v>
       </c>
       <c r="Q7">
-        <v>15.19880531084936</v>
+        <v>16.349385114816</v>
       </c>
       <c r="R7">
-        <v>15.19880531084936</v>
+        <v>147.144466033344</v>
       </c>
       <c r="S7">
-        <v>0.03258610650825235</v>
+        <v>0.03077280534317716</v>
       </c>
       <c r="T7">
-        <v>0.03258610650825235</v>
+        <v>0.03077280534317716</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H8">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I8">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J8">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.4790782736263</v>
+        <v>16.543524</v>
       </c>
       <c r="N8">
-        <v>16.4790782736263</v>
+        <v>49.630572</v>
       </c>
       <c r="O8">
-        <v>0.1695853283203131</v>
+        <v>0.1629286987355214</v>
       </c>
       <c r="P8">
-        <v>0.1695853283203131</v>
+        <v>0.1629286987355215</v>
       </c>
       <c r="Q8">
-        <v>29.26600682636733</v>
+        <v>31.481068864176</v>
       </c>
       <c r="R8">
-        <v>29.26600682636733</v>
+        <v>283.329619777584</v>
       </c>
       <c r="S8">
-        <v>0.06274606431299515</v>
+        <v>0.05925365372148103</v>
       </c>
       <c r="T8">
-        <v>0.06274606431299515</v>
+        <v>0.05925365372148103</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H9">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I9">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J9">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.2285953032043</v>
+        <v>35.53801933333333</v>
       </c>
       <c r="N9">
-        <v>35.2285953032043</v>
+        <v>106.614058</v>
       </c>
       <c r="O9">
-        <v>0.3625356225365314</v>
+        <v>0.3499957594051789</v>
       </c>
       <c r="P9">
-        <v>0.3625356225365314</v>
+        <v>0.3499957594051789</v>
       </c>
       <c r="Q9">
-        <v>62.56419767584686</v>
+        <v>67.626149901864</v>
       </c>
       <c r="R9">
-        <v>62.56419767584686</v>
+        <v>608.635349116776</v>
       </c>
       <c r="S9">
-        <v>0.134137096131707</v>
+        <v>0.1272859090677797</v>
       </c>
       <c r="T9">
-        <v>0.134137096131707</v>
+        <v>0.1272859090677797</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H10">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I10">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J10">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.8380806069547</v>
+        <v>25.92369633333334</v>
       </c>
       <c r="N10">
-        <v>23.8380806069547</v>
+        <v>77.771089</v>
       </c>
       <c r="O10">
-        <v>0.2453164345196663</v>
+        <v>0.2553092140468263</v>
       </c>
       <c r="P10">
-        <v>0.2453164345196663</v>
+        <v>0.2553092140468263</v>
       </c>
       <c r="Q10">
-        <v>42.33522155709203</v>
+        <v>49.330823921412</v>
       </c>
       <c r="R10">
-        <v>42.33522155709203</v>
+        <v>443.977415292708</v>
       </c>
       <c r="S10">
-        <v>0.09076634712368509</v>
+        <v>0.09285045469853707</v>
       </c>
       <c r="T10">
-        <v>0.09076634712368509</v>
+        <v>0.09285045469853706</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.77594925762357</v>
+        <v>1.902924</v>
       </c>
       <c r="H11">
-        <v>1.77594925762357</v>
+        <v>5.708772</v>
       </c>
       <c r="I11">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304457</v>
       </c>
       <c r="J11">
-        <v>0.3699970093785487</v>
+        <v>0.3636784322304456</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.0688982195683</v>
+        <v>14.94147133333333</v>
       </c>
       <c r="N11">
-        <v>13.0688982195683</v>
+        <v>44.824414</v>
       </c>
       <c r="O11">
-        <v>0.1344913446340794</v>
+        <v>0.1471509021617218</v>
       </c>
       <c r="P11">
-        <v>0.1344913446340794</v>
+        <v>0.1471509021617218</v>
       </c>
       <c r="Q11">
-        <v>23.20970009100032</v>
+        <v>28.432484395512</v>
       </c>
       <c r="R11">
-        <v>23.20970009100032</v>
+        <v>255.892359559608</v>
       </c>
       <c r="S11">
-        <v>0.04976139530190911</v>
+        <v>0.05351560939947067</v>
       </c>
       <c r="T11">
-        <v>0.04976139530190911</v>
+        <v>0.05351560939947068</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.99674530184207</v>
+        <v>2.189605333333333</v>
       </c>
       <c r="H12">
-        <v>1.99674530184207</v>
+        <v>6.568816</v>
       </c>
       <c r="I12">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722017</v>
       </c>
       <c r="J12">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722016</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.558130388920659</v>
+        <v>8.591717333333333</v>
       </c>
       <c r="N12">
-        <v>8.558130388920659</v>
+        <v>25.775152</v>
       </c>
       <c r="O12">
-        <v>0.08807126998940978</v>
+        <v>0.08461542565075156</v>
       </c>
       <c r="P12">
-        <v>0.08807126998940978</v>
+        <v>0.08461542565075157</v>
       </c>
       <c r="Q12">
-        <v>17.08840664662917</v>
+        <v>18.81247009555911</v>
       </c>
       <c r="R12">
-        <v>17.08840664662917</v>
+        <v>169.312230860032</v>
       </c>
       <c r="S12">
-        <v>0.03663739535145525</v>
+        <v>0.03540882279116203</v>
       </c>
       <c r="T12">
-        <v>0.03663739535145525</v>
+        <v>0.03540882279116203</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.99674530184207</v>
+        <v>2.189605333333333</v>
       </c>
       <c r="H13">
-        <v>1.99674530184207</v>
+        <v>6.568816</v>
       </c>
       <c r="I13">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722017</v>
       </c>
       <c r="J13">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722016</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.4790782736263</v>
+        <v>16.543524</v>
       </c>
       <c r="N13">
-        <v>16.4790782736263</v>
+        <v>49.630572</v>
       </c>
       <c r="O13">
-        <v>0.1695853283203131</v>
+        <v>0.1629286987355214</v>
       </c>
       <c r="P13">
-        <v>0.1695853283203131</v>
+        <v>0.1629286987355215</v>
       </c>
       <c r="Q13">
-        <v>32.90452212155105</v>
+        <v>36.223788382528</v>
       </c>
       <c r="R13">
-        <v>32.90452212155105</v>
+        <v>326.014095442752</v>
       </c>
       <c r="S13">
-        <v>0.07054700948702974</v>
+        <v>0.06818039827551778</v>
       </c>
       <c r="T13">
-        <v>0.07054700948702974</v>
+        <v>0.06818039827551778</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.99674530184207</v>
+        <v>2.189605333333333</v>
       </c>
       <c r="H14">
-        <v>1.99674530184207</v>
+        <v>6.568816</v>
       </c>
       <c r="I14">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722017</v>
       </c>
       <c r="J14">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722016</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>35.2285953032043</v>
+        <v>35.53801933333333</v>
       </c>
       <c r="N14">
-        <v>35.2285953032043</v>
+        <v>106.614058</v>
       </c>
       <c r="O14">
-        <v>0.3625356225365314</v>
+        <v>0.3499957594051789</v>
       </c>
       <c r="P14">
-        <v>0.3625356225365314</v>
+        <v>0.3499957594051789</v>
       </c>
       <c r="Q14">
-        <v>70.34253216216881</v>
+        <v>77.81423666836977</v>
       </c>
       <c r="R14">
-        <v>70.34253216216881</v>
+        <v>700.328130015328</v>
       </c>
       <c r="S14">
-        <v>0.1508137776763523</v>
+        <v>0.1464619214182974</v>
       </c>
       <c r="T14">
-        <v>0.1508137776763523</v>
+        <v>0.1464619214182974</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.99674530184207</v>
+        <v>2.189605333333333</v>
       </c>
       <c r="H15">
-        <v>1.99674530184207</v>
+        <v>6.568816</v>
       </c>
       <c r="I15">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722017</v>
       </c>
       <c r="J15">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722016</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.8380806069547</v>
+        <v>25.92369633333334</v>
       </c>
       <c r="N15">
-        <v>23.8380806069547</v>
+        <v>77.771089</v>
       </c>
       <c r="O15">
-        <v>0.2453164345196663</v>
+        <v>0.2553092140468263</v>
       </c>
       <c r="P15">
-        <v>0.2453164345196663</v>
+        <v>0.2553092140468263</v>
       </c>
       <c r="Q15">
-        <v>47.59857545686936</v>
+        <v>56.76266375118045</v>
       </c>
       <c r="R15">
-        <v>47.59857545686936</v>
+        <v>510.863973760624</v>
       </c>
       <c r="S15">
-        <v>0.1020509321460578</v>
+        <v>0.1068386602987517</v>
       </c>
       <c r="T15">
-        <v>0.1020509321460578</v>
+        <v>0.1068386602987517</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.99674530184207</v>
+        <v>2.189605333333333</v>
       </c>
       <c r="H16">
-        <v>1.99674530184207</v>
+        <v>6.568816</v>
       </c>
       <c r="I16">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722017</v>
       </c>
       <c r="J16">
-        <v>0.4159971277337178</v>
+        <v>0.4184677027722016</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.0688982195683</v>
+        <v>14.94147133333333</v>
       </c>
       <c r="N16">
-        <v>13.0688982195683</v>
+        <v>44.824414</v>
       </c>
       <c r="O16">
-        <v>0.1344913446340794</v>
+        <v>0.1471509021617218</v>
       </c>
       <c r="P16">
-        <v>0.1344913446340794</v>
+        <v>0.1471509021617218</v>
       </c>
       <c r="Q16">
-        <v>26.0952611201752</v>
+        <v>32.71592531931378</v>
       </c>
       <c r="R16">
-        <v>26.0952611201752</v>
+        <v>294.443327873824</v>
       </c>
       <c r="S16">
-        <v>0.05594801307282259</v>
+        <v>0.06157789998847272</v>
       </c>
       <c r="T16">
-        <v>0.05594801307282259</v>
+        <v>0.06157789998847273</v>
       </c>
     </row>
   </sheetData>
